--- a/data/trans_camb/IP19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 3,47</t>
+          <t>-0,91; 7,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -2,02</t>
+          <t>-2,78; 4,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -1,91</t>
+          <t>-3,02; 5,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 0,92</t>
+          <t>-0,85; 6,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 0,5</t>
+          <t>-3,11; 2,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -3,01</t>
+          <t>-1,63; 5,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 0,9</t>
+          <t>0,28; 5,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; -2,65</t>
+          <t>-1,91; 2,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -4,34</t>
+          <t>-1,45; 3,96</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>116,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-49,83%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-49,29%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>173,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,02%</t>
+          <t>-17,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,67%</t>
+          <t>110,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>139,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-39,36%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-48,3%</t>
+          <t>64,43%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 30,35</t>
+          <t>-36,82; 930,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,38; -17,13</t>
+          <t>-70,83; 494,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,14; -16,92</t>
+          <t>-81,64; 616,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 7,38</t>
+          <t>-44,39; 996,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 4,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,62; -18,13</t>
+          <t>-78,89; 829,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 7,33</t>
+          <t>2,06; 596,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,79; -18,52</t>
+          <t>-58,87; 270,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,94; -30,77</t>
+          <t>-49,16; 347,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-7,87</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,24</t>
+          <t>-7,02; 3,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,36</t>
+          <t>-12,24; -2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,3</t>
+          <t>-11,74; -1,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,56</t>
+          <t>-10,94; 0,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,16</t>
+          <t>-11,56; 0,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 5,79</t>
+          <t>-14,0; -3,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,97</t>
+          <t>-6,99; 0,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,52</t>
+          <t>-9,98; -2,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,96</t>
+          <t>-11,33; -4,34</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>116,14%</t>
+          <t>-11,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>-49,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>-49,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>173,03%</t>
+          <t>-26,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,88%</t>
+          <t>-31,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>110,49%</t>
+          <t>-46,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>139,62%</t>
+          <t>-19,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>-39,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>-48,3%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 930,55</t>
+          <t>-41,34; 30,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 494,12</t>
+          <t>-69,38; -17,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 616,37</t>
+          <t>-67,14; -16,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 996,46</t>
+          <t>-51,08; 7,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,01; 4,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,89; 829,13</t>
+          <t>-65,62; -18,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 596,11</t>
+          <t>-37,89; 7,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 270,26</t>
+          <t>-54,79; -18,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 347,19</t>
+          <t>-61,94; -30,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-19,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-19,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-19,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-13,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-13,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-13,25</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 0,0</t>
+          <t>-74,03; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 13,99</t>
+          <t>-71,69; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 11,68</t>
+          <t>-55,29; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 0,0</t>
+          <t>-63,55; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,84</t>
+          <t>-49,92; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,96</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,24</t>
+          <t>-1,82; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,36</t>
+          <t>-2,15; 4,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 5,3</t>
+          <t>-2,16; 5,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,56</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,16</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 5,79</t>
+          <t>0,0; 7,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,97</t>
+          <t>-0,42; 4,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,52</t>
+          <t>-0,75; 3,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,96</t>
+          <t>-0,44; 5,1</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>116,14%</t>
+          <t>101,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>58,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>173,03%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,88%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>110,49%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>139,62%</t>
+          <t>178,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>148,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>208,97%</t>
         </is>
       </c>
     </row>
@@ -1007,22 +1007,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 930,55</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 494,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,64; 616,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 996,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,89; 829,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 596,11</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 270,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 347,19</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,61</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>-2,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 3,47</t>
+          <t>-1,43; 9,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -2,02</t>
+          <t>-5,05; 3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -1,91</t>
+          <t>-2,85; 6,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 0,92</t>
+          <t>-11,47; 0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 0,5</t>
+          <t>-15,4; -3,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -3,01</t>
+          <t>-15,11; -3,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 0,9</t>
+          <t>-4,11; 4,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,98; -2,65</t>
+          <t>-8,38; -1,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -4,34</t>
+          <t>-7,03; 0,79</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-49,83%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-49,29%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-26,84%</t>
+          <t>-37,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-31,02%</t>
+          <t>-77,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-46,67%</t>
+          <t>-72,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-39,36%</t>
+          <t>-56,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-48,3%</t>
+          <t>-36,36%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 30,35</t>
+          <t>-27,45; 405,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,38; -17,13</t>
+          <t>-68,29; 176,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,14; -16,92</t>
+          <t>-47,02; 309,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 7,38</t>
+          <t>-72,22; 22,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 4,17</t>
+          <t>-93,92; -37,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,62; -18,13</t>
+          <t>-91,34; -32,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 7,33</t>
+          <t>-39,94; 73,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,79; -18,52</t>
+          <t>-79,34; -18,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,94; -30,77</t>
+          <t>-65,52; 22,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-8,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,41</t>
+          <t>-8,65; 4,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; -1,37</t>
+          <t>-14,03; -1,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -0,94</t>
+          <t>-16,02; -4,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 1,16</t>
+          <t>-9,32; 4,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -0,41</t>
+          <t>-8,88; 5,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; -0,72</t>
+          <t>-12,8; 0,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,39</t>
+          <t>-6,76; 2,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -1,63</t>
+          <t>-9,67; -0,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -2,02</t>
+          <t>-12,78; -4,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>-11,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-43,3%</t>
+          <t>-47,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,85%</t>
+          <t>-60,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,81%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,16%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-36,35%</t>
+          <t>-33,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,91%</t>
+          <t>-11,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-37,71%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-38,91%</t>
+          <t>-47,27%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 41,55</t>
+          <t>-43,35; 36,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,08; -14,62</t>
+          <t>-69,03; -10,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,04; -10,55</t>
+          <t>-77,64; -30,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,71; 11,65</t>
+          <t>-41,7; 29,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,74; -4,1</t>
+          <t>-39,64; 38,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,72; -5,23</t>
+          <t>-57,55; 4,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 13,27</t>
+          <t>-33,47; 18,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,34; -16,19</t>
+          <t>-47,44; -1,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,46; -21,05</t>
+          <t>-62,15; -27,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,44</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-4,19</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-4,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 3,57</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; -1,25</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; -0,63</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 1,03</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; -0,16</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; -0,54</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 1,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; -1,71</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; -1,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-43,3%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-40,85%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-20,81%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-33,16%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-36,35%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-11,91%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-37,71%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-38,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-33,15; 44,08</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-64,69; -13,9</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-60,58; -8,68</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-43,89; 10,63</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-55,34; -0,71</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-58,1; -4,58</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-32,67; 13,76</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-53,38; -15,64</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-53,85; -18,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 0,0</t>
+          <t>-65,8; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 0,0</t>
+          <t>-74,35; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 0,0</t>
+          <t>-54,52; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,55; 0,0</t>
+          <t>-61,77; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-49,92; 0,0</t>
+          <t>-59,53; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,01</t>
+          <t>-1,88; 6,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,89</t>
+          <t>-2,59; 4,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 5,27</t>
+          <t>-2,79; 4,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,08</t>
+          <t>0,0; 5,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,21</t>
+          <t>0,0; 7,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,13</t>
+          <t>-0,44; 4,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,65</t>
+          <t>-0,84; 3,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,1</t>
+          <t>-0,36; 4,79</t>
         </is>
       </c>
     </row>
@@ -1007,39 +1007,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-87,1; —</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 9,31</t>
+          <t>-1,19; 9,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 3,52</t>
+          <t>-5,46; 3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,74</t>
+          <t>-3,64; 6,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 0,8</t>
+          <t>-10,78; 1,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,4; -3,68</t>
+          <t>-14,86; -3,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -3,19</t>
+          <t>-14,26; -2,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,21</t>
+          <t>-4,24; 3,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; -1,13</t>
+          <t>-8,09; -0,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,79</t>
+          <t>-6,74; 0,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 405,51</t>
+          <t>-28,35; 437,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 176,87</t>
+          <t>-68,92; 176,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,02; 309,38</t>
+          <t>-51,92; 328,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,22; 22,71</t>
+          <t>-71,98; 31,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-93,92; -37,99</t>
+          <t>-93,71; -35,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,34; -32,87</t>
+          <t>-92,05; -34,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 73,89</t>
+          <t>-41,95; 75,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,34; -18,06</t>
+          <t>-77,03; -10,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,52; 22,08</t>
+          <t>-65,91; 23,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 4,99</t>
+          <t>-9,25; 4,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -1,98</t>
+          <t>-14,22; -1,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -4,81</t>
+          <t>-16,02; -5,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 4,61</t>
+          <t>-9,51; 4,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 5,9</t>
+          <t>-8,75; 6,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 0,65</t>
+          <t>-12,77; 0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 2,7</t>
+          <t>-7,03; 2,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -0,21</t>
+          <t>-9,58; -0,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -4,37</t>
+          <t>-12,95; -4,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 36,11</t>
+          <t>-45,4; 34,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,03; -10,94</t>
+          <t>-69,64; -11,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,64; -30,92</t>
+          <t>-78,41; -36,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 29,87</t>
+          <t>-41,31; 31,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 38,99</t>
+          <t>-39,55; 41,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 4,92</t>
+          <t>-57,34; 3,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 18,01</t>
+          <t>-35,02; 17,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,44; -1,18</t>
+          <t>-47,42; -0,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,15; -27,32</t>
+          <t>-62,85; -25,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,57</t>
+          <t>-4,11; 3,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,57; -1,25</t>
+          <t>-7,84; -0,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,16; -0,63</t>
+          <t>-7,66; -1,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 1,03</t>
+          <t>-6,31; 1,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -0,16</t>
+          <t>-8,06; -0,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -0,54</t>
+          <t>-8,3; -0,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,3</t>
+          <t>-3,91; 1,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -1,71</t>
+          <t>-6,57; -1,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,9</t>
+          <t>-6,6; -1,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 44,08</t>
+          <t>-33,36; 40,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,69; -13,9</t>
+          <t>-64,87; -10,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,58; -8,68</t>
+          <t>-62,55; -10,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 10,63</t>
+          <t>-42,78; 18,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,34; -0,71</t>
+          <t>-56,08; -0,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-58,1; -4,58</t>
+          <t>-57,53; -5,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 13,76</t>
+          <t>-31,62; 14,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,38; -15,64</t>
+          <t>-52,65; -17,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,85; -18,72</t>
+          <t>-53,96; -20,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C07-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C07-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-19,67</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-19,67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-19,67</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-19,67</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-19,67</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-19,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,7; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,12; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,8; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,35; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 0,0</t>
+          <t>-57,7; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-61,77; 0,0</t>
+          <t>-51,31; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-59,53; 0,0</t>
+          <t>-54,88; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,67</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,17</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 6,23</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,87</t>
+          <t>0,0; 6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 4,86</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>-2,01; 6,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,49</t>
+          <t>-2,15; 4,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,63</t>
+          <t>-2,53; 5,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,29</t>
+          <t>-0,66; 4,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,49</t>
+          <t>-0,5; 3,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,79</t>
+          <t>-0,41; 4,93</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>101,46%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>71,12%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>58,68%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>56,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>208,97%</t>
+          <t>201,42%</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-80,4; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-87,1; —</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-4,18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-8,55</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-7,96</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>4,06</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,46</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-4,18</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-8,55</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,07</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-2,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 9,43</t>
+          <t>-11,56; 1,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 3,56</t>
+          <t>-14,49; -3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 6,97</t>
+          <t>-14,72; -3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 1,92</t>
+          <t>-1,2; 9,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; -3,36</t>
+          <t>-5,06; 3,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -2,99</t>
+          <t>-3,41; 6,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 3,96</t>
+          <t>-4,41; 4,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -0,91</t>
+          <t>-8,05; -1,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 0,93</t>
+          <t>-6,64; 0,88</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-37,81%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-77,23%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-71,91%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>86,87%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-9,93%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>38,53%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-37,81%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-77,23%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-72,87%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-36,36%</t>
+          <t>-36,76%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 437,96</t>
+          <t>-71,23; 16,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,92; 176,5</t>
+          <t>-92,93; -29,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 328,47</t>
+          <t>-90,55; -30,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 31,73</t>
+          <t>-23,71; 417,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-93,71; -35,35</t>
+          <t>-71,58; 186,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-92,05; -34,99</t>
+          <t>-49,82; 276,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 75,0</t>
+          <t>-41,95; 77,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,03; -10,86</t>
+          <t>-78,96; -10,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,91; 23,54</t>
+          <t>-66,57; 21,06</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-2,2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-6,37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,98</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-8,16</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-10,51</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-10,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>-8,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 4,82</t>
+          <t>-9,57; 5,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -1,82</t>
+          <t>-9,75; 5,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -5,66</t>
+          <t>-13,16; 0,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 4,97</t>
+          <t>-8,27; 5,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 6,32</t>
+          <t>-14,36; -1,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 0,45</t>
+          <t>-15,92; -4,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 2,77</t>
+          <t>-6,63; 3,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -0,13</t>
+          <t>-9,44; -0,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,95; -4,32</t>
+          <t>-13,2; -4,35</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-11,54%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-9,13%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-33,41%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-11,46%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-47,3%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-60,91%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-11,54%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-9,13%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>-61,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>-48,39%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 34,33</t>
+          <t>-40,36; 35,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,64; -11,68</t>
+          <t>-41,34; 37,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,41; -36,2</t>
+          <t>-58,81; 2,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,31; 31,32</t>
+          <t>-40,7; 43,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,55; 41,91</t>
+          <t>-69,92; -3,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 3,6</t>
+          <t>-78,2; -32,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 17,99</t>
+          <t>-33,29; 19,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,42; -0,76</t>
+          <t>-47,34; 0,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-62,85; -25,82</t>
+          <t>-63,5; -26,79</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,47</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-0,14</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-4,34</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,09</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-4,05</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-4,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 3,31</t>
+          <t>-6,7; 1,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,84; -0,99</t>
+          <t>-7,99; -0,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,66; -1,1</t>
+          <t>-8,38; -0,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,63</t>
+          <t>-3,88; 3,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -0,47</t>
+          <t>-7,89; -1,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -0,62</t>
+          <t>-7,92; -1,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,42</t>
+          <t>-3,82; 1,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -1,63</t>
+          <t>-6,61; -1,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -1,96</t>
+          <t>-7,05; -2,2</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-20,81%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-33,16%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-36,59%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-1,37%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-43,3%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-40,85%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-20,81%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-33,16%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-36,35%</t>
+          <t>-42,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-38,91%</t>
+          <t>-40,13%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 40,59</t>
+          <t>-46,71; 11,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,87; -10,43</t>
+          <t>-56,74; -4,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,55; -10,55</t>
+          <t>-57,5; -5,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,78; 18,48</t>
+          <t>-32,19; 41,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,08; -0,76</t>
+          <t>-64,08; -14,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-57,53; -5,18</t>
+          <t>-62,67; -12,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 14,38</t>
+          <t>-30,64; 13,27</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -17,2</t>
+          <t>-52,34; -16,19</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,96; -20,01</t>
+          <t>-56,43; -22,85</t>
         </is>
       </c>
     </row>
